--- a/biology/Biologie cellulaire et moléculaire/IRX1/IRX1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/IRX1/IRX1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IRX1 (pour « Iroquois homeobox 1 ») est un facteur de transcription de l'homéobox. Son gène est le IRX1 situé sur le chromosome 5 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre son rôle dans le développement embryonnaire, il a une activité suppresseur de tumeur notamment dans le cancer de l'estomac[5] ou ORL, l'inhibition du gène se faisant par méthylation[6]. A contrario, son hyperexpression facilite le développement des métastases lors d'un ostéosarcome en stimulant la voie du CXCL14/NF-κB[7]. 
-Une mutation du gène augmenterait le risque de survenue d'une scoliose[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre son rôle dans le développement embryonnaire, il a une activité suppresseur de tumeur notamment dans le cancer de l'estomac ou ORL, l'inhibition du gène se faisant par méthylation. A contrario, son hyperexpression facilite le développement des métastases lors d'un ostéosarcome en stimulant la voie du CXCL14/NF-κB. 
+Une mutation du gène augmenterait le risque de survenue d'une scoliose.
 </t>
         </is>
       </c>
